--- a/Iteration5/TimeLog-Iteration5.xlsx
+++ b/Iteration5/TimeLog-Iteration5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive - Ara Institute of Canterbury\Year 2\Semester 1\Software Engineering\Assignment 1\Iteration4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive - Ara Institute of Canterbury\Year 2\Semester 1\Software Engineering\Assignment 1\Iteration5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8653F26E-C814-4870-80DF-7B55EAC46EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{36955B61-7710-472D-B26B-36B3ADC1BA1A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{8653F26E-C814-4870-80DF-7B55EAC46EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{F6D21CB0-5CF5-48E3-91B4-2AD9D6648563}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>PSP Time Recording Log</t>
   </si>
@@ -363,67 +363,58 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Iteration 4</t>
-  </si>
-  <si>
-    <t>7:18pm</t>
-  </si>
-  <si>
-    <t>7:26pm</t>
-  </si>
-  <si>
-    <t>4:49pm</t>
-  </si>
-  <si>
-    <t>Start design process (UML, planning complex algo.)</t>
-  </si>
-  <si>
-    <t>7:49pm</t>
-  </si>
-  <si>
-    <t>7:50pm</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>2:20pm</t>
-  </si>
-  <si>
-    <t>3:42pm</t>
-  </si>
-  <si>
-    <t>8:12pm</t>
-  </si>
-  <si>
-    <t>8:47pm</t>
-  </si>
-  <si>
-    <t>8:48pm</t>
-  </si>
-  <si>
-    <t>9:00pm</t>
-  </si>
-  <si>
-    <t>Start Iteration 4</t>
-  </si>
-  <si>
-    <t>Start coding appendix 2.4</t>
-  </si>
-  <si>
-    <t>Write the tests</t>
-  </si>
-  <si>
-    <t>8:32pm</t>
-  </si>
-  <si>
-    <t>9:53pm</t>
-  </si>
-  <si>
-    <t>More testing and writing test automation</t>
+    <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>10:16am</t>
+  </si>
+  <si>
+    <t>10:23am</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>12:04pm</t>
+  </si>
+  <si>
+    <t>12:05pm</t>
+  </si>
+  <si>
+    <t>12:32pm</t>
+  </si>
+  <si>
+    <t>9:28am</t>
+  </si>
+  <si>
+    <t>9:48am</t>
+  </si>
+  <si>
+    <t>10:07am</t>
+  </si>
+  <si>
+    <t>5:55pm</t>
+  </si>
+  <si>
+    <t>6:47pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start iteration5 </t>
+  </si>
+  <si>
+    <t>UML, pseudocode, etc</t>
+  </si>
+  <si>
+    <t>Writing code</t>
+  </si>
+  <si>
+    <t>Tests working?</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1028,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,61 +1099,61 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="14">
-        <v>43580</v>
+        <v>43586</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="14">
-        <v>43580</v>
+        <v>43586</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="14">
-        <v>43580</v>
+        <v>43586</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C10" s="14">
-        <v>43583</v>
+        <v>43587</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -1176,51 +1167,37 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="14">
-        <v>43583</v>
+        <v>43587</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" s="14">
-        <v>43583</v>
+        <v>43587</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
-        <v>54</v>
+      <c r="H12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="14">
-        <v>43583</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
